--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8056" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8055" uniqueCount="857">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T16:12:23+00:00</t>
+    <t>2023-07-25T20:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1936,10 +1936,7 @@
     <t>The Consent Directive that is pointed to might be in various lifecycle states, e.g., a revoked Consent Directive.</t>
   </si>
   <si>
-    <t>Indicates the state of the consent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-state-codes|4.0.1</t>
+    <t>http://example.org/ValueSet/ExampleConsentStateVS</t>
   </si>
   <si>
     <t>Consent.scope</t>
@@ -3437,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="83">
@@ -3445,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="84">
@@ -3461,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86">
@@ -3547,7 +3544,7 @@
         <v>26</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="98">
@@ -3555,7 +3552,7 @@
         <v>28</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="99">
@@ -19773,11 +19770,9 @@
       <c r="Y154" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Z154" t="s" s="2">
+      <c r="Z154" s="2"/>
+      <c r="AA154" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AB154" t="s" s="2">
         <v>37</v>
@@ -19815,10 +19810,10 @@
         <v>590</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19844,10 +19839,10 @@
         <v>264</v>
       </c>
       <c r="M155" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -19877,11 +19872,11 @@
         <v>268</v>
       </c>
       <c r="Z155" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AA155" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="AA155" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="AB155" t="s" s="2">
         <v>37</v>
       </c>
@@ -19898,7 +19893,7 @@
         <v>37</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>42</v>
@@ -19918,10 +19913,10 @@
         <v>590</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19947,10 +19942,10 @@
         <v>264</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -19980,11 +19975,11 @@
         <v>268</v>
       </c>
       <c r="Z156" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AA156" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="AA156" t="s" s="2">
-        <v>626</v>
-      </c>
       <c r="AB156" t="s" s="2">
         <v>37</v>
       </c>
@@ -20001,7 +19996,7 @@
         <v>37</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>42</v>
@@ -20021,10 +20016,10 @@
         <v>590</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20124,10 +20119,10 @@
         <v>590</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20229,10 +20224,10 @@
         <v>590</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20336,10 +20331,10 @@
         <v>590</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20443,10 +20438,10 @@
         <v>590</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20469,16 +20464,16 @@
         <v>43</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="N161" t="s" s="2">
+      <c r="O161" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
@@ -20528,7 +20523,7 @@
         <v>37</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>35</v>
@@ -20548,10 +20543,10 @@
         <v>590</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20574,16 +20569,16 @@
         <v>43</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
@@ -20633,7 +20628,7 @@
         <v>37</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>35</v>
@@ -20653,14 +20648,14 @@
         <v>590</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
@@ -20679,16 +20674,16 @@
         <v>43</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -20738,7 +20733,7 @@
         <v>37</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>35</v>
@@ -20758,14 +20753,14 @@
         <v>590</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" t="s" s="2">
@@ -20787,10 +20782,10 @@
         <v>319</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -20841,7 +20836,7 @@
         <v>37</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>35</v>
@@ -20861,10 +20856,10 @@
         <v>590</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -20887,16 +20882,16 @@
         <v>43</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -20946,7 +20941,7 @@
         <v>37</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>35</v>
@@ -20966,10 +20961,10 @@
         <v>590</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -20995,10 +20990,10 @@
         <v>284</v>
       </c>
       <c r="M166" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N166" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -21049,7 +21044,7 @@
         <v>37</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>35</v>
@@ -21069,10 +21064,10 @@
         <v>590</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21172,10 +21167,10 @@
         <v>590</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21277,10 +21272,10 @@
         <v>590</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21384,10 +21379,10 @@
         <v>590</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21413,10 +21408,10 @@
         <v>56</v>
       </c>
       <c r="M170" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -21467,7 +21462,7 @@
         <v>37</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>35</v>
@@ -21476,7 +21471,7 @@
         <v>42</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>54</v>
@@ -21487,10 +21482,10 @@
         <v>590</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -21516,13 +21511,13 @@
         <v>56</v>
       </c>
       <c r="M171" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="O171" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
@@ -21572,7 +21567,7 @@
         <v>37</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>35</v>
@@ -21581,7 +21576,7 @@
         <v>42</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>54</v>
@@ -21592,10 +21587,10 @@
         <v>590</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21621,16 +21616,16 @@
         <v>264</v>
       </c>
       <c r="M172" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="O172" t="s" s="2">
+      <c r="P172" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="Q172" t="s" s="2">
         <v>37</v>
@@ -21658,11 +21653,11 @@
         <v>268</v>
       </c>
       <c r="Z172" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AA172" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="AA172" t="s" s="2">
-        <v>675</v>
-      </c>
       <c r="AB172" t="s" s="2">
         <v>37</v>
       </c>
@@ -21679,7 +21674,7 @@
         <v>37</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>35</v>
@@ -21688,7 +21683,7 @@
         <v>42</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>54</v>
@@ -21699,10 +21694,10 @@
         <v>590</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -21728,10 +21723,10 @@
         <v>284</v>
       </c>
       <c r="M173" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N173" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -21782,7 +21777,7 @@
         <v>37</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>35</v>
@@ -21802,10 +21797,10 @@
         <v>590</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -21905,10 +21900,10 @@
         <v>590</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -22010,10 +22005,10 @@
         <v>590</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22117,10 +22112,10 @@
         <v>590</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22146,10 +22141,10 @@
         <v>103</v>
       </c>
       <c r="M177" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N177" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -22200,7 +22195,7 @@
         <v>37</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>42</v>
@@ -22220,10 +22215,10 @@
         <v>590</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -22249,10 +22244,10 @@
         <v>365</v>
       </c>
       <c r="M178" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="N178" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -22303,7 +22298,7 @@
         <v>37</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>35</v>
@@ -22323,10 +22318,10 @@
         <v>590</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -22349,13 +22344,13 @@
         <v>37</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M179" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -22406,7 +22401,7 @@
         <v>37</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>35</v>
@@ -22426,10 +22421,10 @@
         <v>590</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -22455,10 +22450,10 @@
         <v>284</v>
       </c>
       <c r="M180" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -22509,7 +22504,7 @@
         <v>37</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>35</v>
@@ -22529,10 +22524,10 @@
         <v>590</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -22632,10 +22627,10 @@
         <v>590</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -22737,10 +22732,10 @@
         <v>590</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22844,10 +22839,10 @@
         <v>590</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -22873,10 +22868,10 @@
         <v>62</v>
       </c>
       <c r="M184" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -22906,11 +22901,11 @@
         <v>131</v>
       </c>
       <c r="Z184" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AA184" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="AA184" t="s" s="2">
-        <v>701</v>
-      </c>
       <c r="AB184" t="s" s="2">
         <v>37</v>
       </c>
@@ -22927,7 +22922,7 @@
         <v>37</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>35</v>
@@ -22947,10 +22942,10 @@
         <v>590</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -22976,10 +22971,10 @@
         <v>162</v>
       </c>
       <c r="M185" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N185" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -23030,7 +23025,7 @@
         <v>37</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>35</v>
@@ -23050,10 +23045,10 @@
         <v>590</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -23079,10 +23074,10 @@
         <v>284</v>
       </c>
       <c r="M186" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="N186" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -23090,7 +23085,7 @@
         <v>37</v>
       </c>
       <c r="R186" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>37</v>
@@ -23135,7 +23130,7 @@
         <v>37</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>35</v>
@@ -23155,10 +23150,10 @@
         <v>590</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -23258,10 +23253,10 @@
         <v>590</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23363,10 +23358,10 @@
         <v>590</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -23470,10 +23465,10 @@
         <v>590</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -23499,10 +23494,10 @@
         <v>264</v>
       </c>
       <c r="M190" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="N190" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -23532,11 +23527,11 @@
         <v>268</v>
       </c>
       <c r="Z190" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AA190" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="AA190" t="s" s="2">
-        <v>716</v>
-      </c>
       <c r="AB190" t="s" s="2">
         <v>37</v>
       </c>
@@ -23553,7 +23548,7 @@
         <v>37</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>42</v>
@@ -23573,10 +23568,10 @@
         <v>590</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23599,13 +23594,13 @@
         <v>37</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -23656,7 +23651,7 @@
         <v>37</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>42</v>
@@ -23676,10 +23671,10 @@
         <v>590</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -23705,20 +23700,20 @@
         <v>264</v>
       </c>
       <c r="M192" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="N192" t="s" s="2">
+      <c r="O192" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R192" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>37</v>
@@ -23742,11 +23737,11 @@
         <v>402</v>
       </c>
       <c r="Z192" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AA192" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="AA192" t="s" s="2">
-        <v>727</v>
-      </c>
       <c r="AB192" t="s" s="2">
         <v>37</v>
       </c>
@@ -23763,7 +23758,7 @@
         <v>37</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>35</v>
@@ -23783,10 +23778,10 @@
         <v>590</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -23812,13 +23807,13 @@
         <v>524</v>
       </c>
       <c r="M193" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="N193" t="s" s="2">
+      <c r="O193" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
@@ -23847,11 +23842,11 @@
         <v>268</v>
       </c>
       <c r="Z193" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AA193" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="AA193" t="s" s="2">
-        <v>733</v>
-      </c>
       <c r="AB193" t="s" s="2">
         <v>37</v>
       </c>
@@ -23868,7 +23863,7 @@
         <v>37</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>35</v>
@@ -23888,10 +23883,10 @@
         <v>590</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -23917,13 +23912,13 @@
         <v>524</v>
       </c>
       <c r="M194" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="N194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
@@ -23952,11 +23947,11 @@
         <v>268</v>
       </c>
       <c r="Z194" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="AA194" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="AA194" t="s" s="2">
-        <v>739</v>
-      </c>
       <c r="AB194" t="s" s="2">
         <v>37</v>
       </c>
@@ -23973,7 +23968,7 @@
         <v>37</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>35</v>
@@ -23993,10 +23988,10 @@
         <v>590</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -24022,13 +24017,13 @@
         <v>524</v>
       </c>
       <c r="M195" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="N195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
@@ -24057,11 +24052,11 @@
         <v>268</v>
       </c>
       <c r="Z195" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AA195" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="AA195" t="s" s="2">
-        <v>745</v>
-      </c>
       <c r="AB195" t="s" s="2">
         <v>37</v>
       </c>
@@ -24078,7 +24073,7 @@
         <v>37</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>35</v>
@@ -24098,10 +24093,10 @@
         <v>590</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -24127,13 +24122,13 @@
         <v>264</v>
       </c>
       <c r="M196" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="N196" t="s" s="2">
+      <c r="O196" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
@@ -24162,11 +24157,11 @@
         <v>402</v>
       </c>
       <c r="Z196" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="AA196" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="AA196" t="s" s="2">
-        <v>751</v>
-      </c>
       <c r="AB196" t="s" s="2">
         <v>37</v>
       </c>
@@ -24183,7 +24178,7 @@
         <v>37</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>35</v>
@@ -24203,10 +24198,10 @@
         <v>590</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -24232,13 +24227,13 @@
         <v>162</v>
       </c>
       <c r="M197" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="N197" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="N197" t="s" s="2">
+      <c r="O197" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="O197" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
@@ -24288,7 +24283,7 @@
         <v>37</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>35</v>
@@ -24308,10 +24303,10 @@
         <v>590</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -24337,10 +24332,10 @@
         <v>284</v>
       </c>
       <c r="M198" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
@@ -24348,7 +24343,7 @@
         <v>37</v>
       </c>
       <c r="R198" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>37</v>
@@ -24393,7 +24388,7 @@
         <v>37</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>35</v>
@@ -24413,10 +24408,10 @@
         <v>590</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -24516,10 +24511,10 @@
         <v>590</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -24621,10 +24616,10 @@
         <v>590</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -24728,10 +24723,10 @@
         <v>590</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -24757,10 +24752,10 @@
         <v>62</v>
       </c>
       <c r="M202" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N202" t="s" s="2">
         <v>764</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>765</v>
       </c>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
@@ -24790,11 +24785,11 @@
         <v>131</v>
       </c>
       <c r="Z202" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="AA202" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="AA202" t="s" s="2">
-        <v>767</v>
-      </c>
       <c r="AB202" t="s" s="2">
         <v>37</v>
       </c>
@@ -24811,7 +24806,7 @@
         <v>37</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>42</v>
@@ -24831,10 +24826,10 @@
         <v>590</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -24857,13 +24852,13 @@
         <v>43</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="M203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
@@ -24914,7 +24909,7 @@
         <v>37</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>42</v>
@@ -24934,10 +24929,10 @@
         <v>590</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -24963,10 +24958,10 @@
         <v>38</v>
       </c>
       <c r="M204" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>773</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>774</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
@@ -25017,7 +25012,7 @@
         <v>37</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>35</v>
@@ -25034,13 +25029,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -25066,10 +25061,10 @@
         <v>38</v>
       </c>
       <c r="M205" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N205" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
@@ -25120,7 +25115,7 @@
         <v>37</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>35</v>
@@ -25137,13 +25132,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -25242,13 +25237,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -25345,13 +25340,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -25450,13 +25445,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -25555,13 +25550,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -25660,13 +25655,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -25765,13 +25760,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -25870,13 +25865,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -25977,13 +25972,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -26009,10 +26004,10 @@
         <v>98</v>
       </c>
       <c r="M214" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
@@ -26065,7 +26060,7 @@
         <v>37</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>35</v>
@@ -26082,13 +26077,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -26114,16 +26109,16 @@
         <v>103</v>
       </c>
       <c r="M215" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="N215" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="N215" t="s" s="2">
+      <c r="O215" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="O215" t="s" s="2">
+      <c r="P215" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="P215" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="Q215" t="s" s="2">
         <v>37</v>
@@ -26174,7 +26169,7 @@
         <v>37</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>35</v>
@@ -26191,13 +26186,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -26223,16 +26218,16 @@
         <v>110</v>
       </c>
       <c r="M216" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="N216" t="s" s="2">
+      <c r="O216" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="O216" t="s" s="2">
+      <c r="P216" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="P216" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="Q216" t="s" s="2">
         <v>37</v>
@@ -26281,7 +26276,7 @@
         <v>37</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>35</v>
@@ -26298,13 +26293,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -26401,13 +26396,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -26506,13 +26501,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -26613,13 +26608,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -26720,13 +26715,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -26825,13 +26820,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -26930,13 +26925,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -27033,13 +27028,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -27136,13 +27131,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -27241,13 +27236,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -27273,16 +27268,16 @@
         <v>168</v>
       </c>
       <c r="M226" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="N226" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="N226" t="s" s="2">
+      <c r="O226" t="s" s="2">
         <v>813</v>
       </c>
-      <c r="O226" t="s" s="2">
+      <c r="P226" t="s" s="2">
         <v>814</v>
-      </c>
-      <c r="P226" t="s" s="2">
-        <v>815</v>
       </c>
       <c r="Q226" t="s" s="2">
         <v>37</v>
@@ -27331,7 +27326,7 @@
         <v>37</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>35</v>
@@ -27348,13 +27343,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -27380,16 +27375,16 @@
         <v>193</v>
       </c>
       <c r="M227" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="N227" t="s" s="2">
         <v>817</v>
       </c>
-      <c r="N227" t="s" s="2">
+      <c r="O227" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="O227" t="s" s="2">
+      <c r="P227" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="P227" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="Q227" t="s" s="2">
         <v>37</v>
@@ -27438,7 +27433,7 @@
         <v>37</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>35</v>
@@ -27455,13 +27450,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -27490,7 +27485,7 @@
         <v>174</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -27543,7 +27538,7 @@
         <v>37</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>35</v>
@@ -27560,13 +27555,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -27592,14 +27587,14 @@
         <v>181</v>
       </c>
       <c r="M229" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="N229" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q229" t="s" s="2">
         <v>37</v>
@@ -27648,7 +27643,7 @@
         <v>37</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>35</v>
@@ -27665,13 +27660,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -27697,14 +27692,14 @@
         <v>278</v>
       </c>
       <c r="M230" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N230" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Q230" t="s" s="2">
         <v>37</v>
@@ -27753,7 +27748,7 @@
         <v>37</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>35</v>
@@ -27770,13 +27765,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -27802,10 +27797,10 @@
         <v>284</v>
       </c>
       <c r="M231" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="N231" t="s" s="2">
         <v>832</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>833</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
@@ -27856,7 +27851,7 @@
         <v>37</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>35</v>
@@ -27873,13 +27868,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -27976,13 +27971,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -28081,13 +28076,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -28188,13 +28183,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -28220,14 +28215,14 @@
         <v>98</v>
       </c>
       <c r="M235" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q235" t="s" s="2">
         <v>37</v>
@@ -28276,7 +28271,7 @@
         <v>37</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>35</v>
@@ -28293,13 +28288,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -28325,10 +28320,10 @@
         <v>264</v>
       </c>
       <c r="M236" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="N236" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
@@ -28358,11 +28353,11 @@
         <v>402</v>
       </c>
       <c r="Z236" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="AA236" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="AA236" t="s" s="2">
-        <v>845</v>
-      </c>
       <c r="AB236" t="s" s="2">
         <v>37</v>
       </c>
@@ -28379,7 +28374,7 @@
         <v>37</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>42</v>
@@ -28396,13 +28391,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -28428,14 +28423,14 @@
         <v>162</v>
       </c>
       <c r="M237" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="N237" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Q237" t="s" s="2">
         <v>37</v>
@@ -28484,7 +28479,7 @@
         <v>37</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>35</v>
@@ -28501,13 +28496,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -28533,10 +28528,10 @@
         <v>319</v>
       </c>
       <c r="M238" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N238" t="s" s="2">
         <v>851</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>852</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
@@ -28587,7 +28582,7 @@
         <v>37</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>35</v>
@@ -28604,13 +28599,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -28636,16 +28631,16 @@
         <v>264</v>
       </c>
       <c r="M239" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="N239" t="s" s="2">
         <v>854</v>
       </c>
-      <c r="N239" t="s" s="2">
+      <c r="O239" t="s" s="2">
         <v>855</v>
       </c>
-      <c r="O239" t="s" s="2">
+      <c r="P239" t="s" s="2">
         <v>856</v>
-      </c>
-      <c r="P239" t="s" s="2">
-        <v>857</v>
       </c>
       <c r="Q239" t="s" s="2">
         <v>37</v>
@@ -28694,7 +28689,7 @@
         <v>37</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>35</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T20:33:47+00:00</t>
+    <t>2023-07-25T20:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
